--- a/biology/Botanique/Dischidia/Dischidia.xlsx
+++ b/biology/Botanique/Dischidia/Dischidia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dischidia est un genre de plantes à fleurs herbacées tropicales de la famille des Apocynaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est réparti en Asie du Sud-Est et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est réparti en Asie du Sud-Est et en Océanie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces sont des herbacées épiphytes ou épilithiques, aux tiges et aux branches charnues, généralement grimpantes par des racines adventives, parfois aussi filiformes ou pendantes. Les feuilles sont opposées ou partiellement en verticilles par trois ou quatre, charnues. Certaines plantes sont parfois sans feuilles[2].
-Les inflorescences sont extra-axillaires, petites ; le rachis est épais, souvent ramifié, éventuellement allongé, produisant une série de groupes de fleurs souvent en ombelle. Les fleurs sont généralement très petites. Le calice présente cinq glandes basales. La corolle est blanche, rouge ou violette, ovoïde à urcéolée, avec une bouche étroite, charnue ; les lobes sont valvés dans le bourgeon, courts, souvent poilus. Les lobes de la couronne sont par cinq, minces, insérés sur le gynostegium, dressés ou ascendants, l'apex entier, dentelé, à deux fentes, ou avec des bras recourbés. Les anthères sont dressées, avec une membrane apicale recouvrant la tête du stigmate ; il y a deux pollinies par pollinarium, à marge translucide, les caudicules élargies à l'apex, dressées. Les fruits sont des follicules lancéolés ou cylindriques[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sont des herbacées épiphytes ou épilithiques, aux tiges et aux branches charnues, généralement grimpantes par des racines adventives, parfois aussi filiformes ou pendantes. Les feuilles sont opposées ou partiellement en verticilles par trois ou quatre, charnues. Certaines plantes sont parfois sans feuilles.
+Les inflorescences sont extra-axillaires, petites ; le rachis est épais, souvent ramifié, éventuellement allongé, produisant une série de groupes de fleurs souvent en ombelle. Les fleurs sont généralement très petites. Le calice présente cinq glandes basales. La corolle est blanche, rouge ou violette, ovoïde à urcéolée, avec une bouche étroite, charnue ; les lobes sont valvés dans le bourgeon, courts, souvent poilus. Les lobes de la couronne sont par cinq, minces, insérés sur le gynostegium, dressés ou ascendants, l'apex entier, dentelé, à deux fentes, ou avec des bras recourbés. Les anthères sont dressées, avec une membrane apicale recouvrant la tête du stigmate ; il y a deux pollinies par pollinarium, à marge translucide, les caudicules élargies à l'apex, dressées. Les fruits sont des follicules lancéolés ou cylindriques.
 			Dischidia major.
 			Dischidia vidalii.
 			Dischidia ruscifolia.
@@ -580,10 +596,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Dischidia R.Br.[1].
-Dischidia a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Dischidia R.Br..
+Dischidia a pour synonymes :
 Collyris Vahl in Skr. Naturhist.-Selsk. 6: 110 (1810)
 Conchophyllum Blume in Bijdr. Fl. Ned. Ind.: 1060 (1826)
 Dischidiopsis Schltr. in Fragm. Fl. Philipp. 1: 128 (1904)
@@ -619,9 +637,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (28 octobre 2023)[1] (127 espèces) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (28 octobre 2023) (127 espèces) :
 Dischidia aberrans Schltr.
 Dischidia acuminata Costantin
 Dischidia acutifolia Maingay ex Hook.f.
